--- a/biology/Médecine/Prix_Théodore-Ott/Prix_Théodore-Ott.xlsx
+++ b/biology/Médecine/Prix_Théodore-Ott/Prix_Théodore-Ott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Th%C3%A9odore-Ott</t>
+          <t>Prix_Théodore-Ott</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix Théodore-Ott est une distinction décernée pour des travaux de recherche exceptionnels en Suisse et financée par l'Académie suisse des sciences médicales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Th%C3%A9odore-Ott</t>
+          <t>Prix_Théodore-Ott</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix est créé en 1997 en mémoire du neurologue suisse Théodore Ott (de) (1909 – 1991)[1]. Le Prix est décerné tous les cinq ans à des scientifiques ayant accompli un travail remarquable dans le domaine de la recherche fondamentale en neurologie. Il est doté de 50 000 francs suisses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix est créé en 1997 en mémoire du neurologue suisse Théodore Ott (de) (1909 – 1991). Le Prix est décerné tous les cinq ans à des scientifiques ayant accompli un travail remarquable dans le domaine de la recherche fondamentale en neurologie. Il est doté de 50 000 francs suisses.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_Th%C3%A9odore-Ott</t>
+          <t>Prix_Théodore-Ott</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2022 : Burkhard Becher (professeur à l’Institut d’immunologie expérimentale de l’Université de Zurich) « pour ses recherches pionnières sur le rôle des processus inflammatoires dans divers contextes neuropathologiques, dont la sclérose en plaques »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2022 : Burkhard Becher (professeur à l’Institut d’immunologie expérimentale de l’Université de Zurich) « pour ses recherches pionnières sur le rôle des processus inflammatoires dans divers contextes neuropathologiques, dont la sclérose en plaques ».
 2017 : Christian Lüscher (Genève) et Andrea Volterra (Lausanne).
 2012 : Adriano Aguzzi (Zurich) et Pico Caroni (Bâle).
-2007 : Theodor Landis (Genève) et Reinhard Stocker (Fribourg)[3].
+2007 : Theodor Landis (Genève) et Reinhard Stocker (Fribourg).
 2002 : Hanns Möhler (Zurich) et Dominique Müller (Genève)
 1997 : Pierre Magistretti (Lausanne) et Wolfram Schultz (Fribourg).</t>
         </is>
